--- a/その他提出物/(STARVOTE)テスト計画票.xlsx
+++ b/その他提出物/(STARVOTE)テスト計画票.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\個人開発\①投票アプリ(Python)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F671895-4707-473A-BC07-CA135D2A0732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678B5725-1B18-46A1-B5B5-6015ED2D9EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2C57186B-F4C3-4FB2-85A0-B4EA20CC8909}"/>
   </bookViews>
@@ -148,13 +148,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>投票</t>
-    <rPh sb="0" eb="2">
-      <t>トウヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>選択したアイドルに投票できること</t>
     <rPh sb="0" eb="2">
       <t>センタク</t>
@@ -278,7 +271,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>投票結果ページの「トップページに戻る」ボタンを押下する</t>
+    <t>STAR VOTE 投票アプリ　テスト計画書</t>
+    <rPh sb="10" eb="12">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ケイカクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票機能</t>
+    <rPh sb="0" eb="2">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票結果ページの「トップページに戻る」ボタンを押下する(results.html→overview.html)</t>
     <rPh sb="0" eb="4">
       <t>トウヒョウケッカ</t>
     </rPh>
@@ -291,25 +304,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>概要ページに画面遷移する</t>
+    <t>概要ページ(overview.html)に画面遷移する</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
     </rPh>
-    <rPh sb="6" eb="8">
+    <rPh sb="21" eb="23">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="8" eb="10">
+    <rPh sb="23" eb="25">
       <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>STAR VOTE 投票アプリ　テスト計画書</t>
-    <rPh sb="10" eb="12">
-      <t>トウヒョウ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>ケイカクショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -398,7 +401,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -425,6 +428,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,12 +771,14 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.58203125" style="9" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.58203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="75.08203125" style="1" bestFit="1" customWidth="1"/>
@@ -780,12 +788,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
-        <v>26</v>
+      <c r="B1" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -808,7 +816,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="3">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -831,44 +839,44 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="3">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="3">
+      <c r="B5" s="6">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>7</v>
@@ -876,21 +884,21 @@
     </row>
     <row r="6" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2"/>
-      <c r="B6" s="3">
-        <v>3</v>
+      <c r="B6" s="6">
+        <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>7</v>

--- a/その他提出物/(STARVOTE)テスト計画票.xlsx
+++ b/その他提出物/(STARVOTE)テスト計画票.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\個人開発\①投票アプリ(Python)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678B5725-1B18-46A1-B5B5-6015ED2D9EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAB9208-B37D-441C-8CAD-79BFDBE49D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2C57186B-F4C3-4FB2-85A0-B4EA20CC8909}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2C57186B-F4C3-4FB2-85A0-B4EA20CC8909}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -132,9 +132,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ABC123XYZ456</t>
-  </si>
-  <si>
     <t>投票ページに画面遷移する</t>
     <rPh sb="0" eb="2">
       <t>トウヒョウ</t>
@@ -183,53 +180,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ムラサキカガヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投票結果ページに遷移して投票したいアイドルのY軸の値が１増える</t>
-    <rPh sb="0" eb="2">
-      <t>トウヒョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>トウヒョウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ジク</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>概要ページの「シリアルナンバー」に無効なシリアルナンバーを入力し、「投票ページに進む」を押下する</t>
-    <rPh sb="0" eb="2">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ムコウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>トウヒョウ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -313,6 +263,192 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票結果ページに遷移して投票したいアイドルのY軸の値が１増え、
+「あなたが投票したアイドル」に投票したアイドル名が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票したのちにブラウザの戻るボタンを押しても投票できないこと</t>
+    <rPh sb="0" eb="2">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票したのちにブラウザを一画面戻り、再度アイドルを選択して「投票する」ボタンを押下する</t>
+    <rPh sb="0" eb="2">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「既に投票済みです。」というアラートが表示され、overview.htmlに遷移する</t>
+    <rPh sb="1" eb="2">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>トウヒョウズ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「期限切れのシリアルナンバーです」が表示される</t>
+    <rPh sb="1" eb="4">
+      <t>キゲンギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要ページの「シリアルナンバー」に使用済のシリアルナンバーを入力し、「投票ページに進む」を押下する</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要ページの「シリアルナンバー」に期限切れのシリアルナンバーを入力し、「投票ページに進む」を押下する</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ギ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MNO345LMN678
+(使用期限12/18)</t>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABC123XYZ456(使用済)</t>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABC123XYZ456(使用前)</t>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>マエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -355,7 +491,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -395,13 +531,39 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -431,6 +593,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,30 +940,30 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.58203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.58203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="75.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.58203125" style="1"/>
+    <col min="2" max="2" width="5.625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="73.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -815,7 +986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B3" s="6">
         <v>1</v>
       </c>
@@ -829,84 +1000,129 @@
         <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B4" s="6">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B5" s="6">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="6">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="G6" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D7"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>